--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80F9CF-F093-4E4F-99F4-89AD47E869BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId3" sheetId="1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
@@ -44,9 +52,6 @@
     <t>mapa</t>
   </si>
   <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
     <t>15:53:00</t>
   </si>
   <si>
@@ -74,9 +79,6 @@
     <t>ver</t>
   </si>
   <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
     <t>22:46:39</t>
   </si>
   <si>
@@ -101,9 +103,6 @@
     <t>-82.8115</t>
   </si>
   <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
     <t>06:58:57</t>
   </si>
   <si>
@@ -126,25 +125,99 @@
   </si>
   <si>
     <t>-83.2457</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>3 km al SE de Paso Real, Buenos Aires, Puntarenas</t>
+  </si>
+  <si>
+    <t>Tectónico por Subducción de la Placa del Cocco bajo la Placa de Panamá</t>
+  </si>
+  <si>
+    <t>Zona sur, Valle Central, Limón</t>
+  </si>
+  <si>
+    <t>-83.2176</t>
+  </si>
+  <si>
+    <t>8.9929</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>9.85 km al SO de las Juntas de Abangares</t>
+  </si>
+  <si>
+    <t>Las Juntas de Abangares, Nicoya, Santa Cruz, Nandayure, Cañas, Paquera, Miramar, Herradura Miramar, San Ramón, Palmares, Naranjo, Atenas, San Mateo, Turrucares.</t>
+  </si>
+  <si>
+    <t>10.2062</t>
+  </si>
+  <si>
+    <t>-85.0046</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Fallamiento Local</t>
+  </si>
+  <si>
+    <t>El Carmen y Tres Ríos, Cartago</t>
+  </si>
+  <si>
+    <t>9.8232</t>
+  </si>
+  <si>
+    <t>-83.8497</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Subducción</t>
+  </si>
+  <si>
+    <t>Fuerte en Punta Banco de Golfito, Puntarenas</t>
+  </si>
+  <si>
+    <t>Orosí, Cartago 3.9 Km SE</t>
+  </si>
+  <si>
+    <t>Punta Banco, Golfito, Puntarenas, 2.6 Km de Bijagua de Upala</t>
+  </si>
+  <si>
+    <t>8.3242</t>
+  </si>
+  <si>
+    <t>-83.1066</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +225,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -167,22 +240,350 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -214,103 +615,233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.86164351851851861</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9435069444444445</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.89189814814814816</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.76380787037037035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80F9CF-F093-4E4F-99F4-89AD47E869BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{556178B2-FEA2-4545-A3F2-516B536DDF35}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="7875" windowWidth="15375" xWindow="2295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2295"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -194,12 +194,46 @@
   </si>
   <si>
     <t>-83.1066</t>
+  </si>
+  <si>
+    <t>06:58:58</t>
+  </si>
+  <si>
+    <t>06:58:59</t>
+  </si>
+  <si>
+    <t>06:58:60</t>
+  </si>
+  <si>
+    <t>06:58:61</t>
+  </si>
+  <si>
+    <t>29/02/2020</t>
+  </si>
+  <si>
+    <t>09:56:02</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.6 km ESE de Bijagua de Upala</t>
+  </si>
+  <si>
+    <t>Bijagua de Upala</t>
+  </si>
+  <si>
+    <t>10.7227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -85.0358</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,29 +272,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,10 +307,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -315,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -367,7 +397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,21 +508,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -561,26 +591,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,13 +745,13 @@
       <c r="A5" s="2">
         <v>43896</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.86164351851851861</v>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
@@ -733,10 +763,10 @@
       <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
@@ -747,13 +777,13 @@
       <c r="A6" s="2">
         <v>43894</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.9435069444444445</v>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>59</v>
       </c>
       <c r="E6" t="s">
@@ -765,10 +795,10 @@
       <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
@@ -779,13 +809,13 @@
       <c r="A7" s="2">
         <v>43892</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.89189814814814816</v>
+      <c r="B7" t="s">
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>11</v>
       </c>
       <c r="E7" t="s">
@@ -797,10 +827,10 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J7" t="s">
@@ -809,15 +839,15 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.76380787037037035</v>
+        <v>43892</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>29</v>
       </c>
       <c r="E8" t="s">
@@ -829,19 +859,51 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{556178B2-FEA2-4545-A3F2-516B536DDF35}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75A687-228D-48B1-95D8-0DCF8F12A58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7875" windowWidth="15375" xWindow="2295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2295"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Fecha</t>
   </si>
@@ -206,34 +206,12 @@
   </si>
   <si>
     <t>06:58:61</t>
-  </si>
-  <si>
-    <t>29/02/2020</t>
-  </si>
-  <si>
-    <t>09:56:02</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.6 km ESE de Bijagua de Upala</t>
-  </si>
-  <si>
-    <t>Bijagua de Upala</t>
-  </si>
-  <si>
-    <t>10.7227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -85.0358</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,25 +250,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,10 +285,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -345,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -397,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,21 +486,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -539,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -591,15 +569,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
@@ -607,10 +585,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,41 +847,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75A687-228D-48B1-95D8-0DCF8F12A58C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8845207E-AA48-4F0B-9401-0B470F674E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>Magnitud</t>
   </si>
   <si>
@@ -40,87 +37,42 @@
     <t>Origen</t>
   </si>
   <si>
-    <t>Reportado</t>
-  </si>
-  <si>
     <t>Latitud</t>
   </si>
   <si>
     <t>Longitud</t>
   </si>
   <si>
-    <t>mapa</t>
-  </si>
-  <si>
-    <t>15:53:00</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>50 km al Suroeste de Jacó</t>
-  </si>
-  <si>
-    <t>Tectónico por Subducción</t>
-  </si>
-  <si>
-    <t>Playa Hermosa de Garabito, Puntarenas</t>
-  </si>
-  <si>
     <t>9.22</t>
   </si>
   <si>
     <t>-84.85</t>
   </si>
   <si>
-    <t>ver</t>
-  </si>
-  <si>
-    <t>22:46:39</t>
-  </si>
-  <si>
     <t>5.34</t>
   </si>
   <si>
     <t>22.45</t>
   </si>
   <si>
-    <t>6.13 km hacia el Noreste de Puerto Armuelles, Panamá</t>
-  </si>
-  <si>
-    <t>Subducción de la placa de Nazca ´pr debajo de la micro placa de Panamá</t>
-  </si>
-  <si>
-    <t>Corredores de Puntarenas, Puerto Armuelles, Golfito, Puerto Jimenez, El Valle Central: Alajuela, Heredia, Escazú</t>
-  </si>
-  <si>
     <t>8.289</t>
   </si>
   <si>
     <t>-82.8115</t>
   </si>
   <si>
-    <t>06:58:57</t>
-  </si>
-  <si>
     <t>3.24</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.68 km hacia el Noreste de Dos Rios de Osa de Puntarenas</t>
-  </si>
-  <si>
-    <t>Deformación interna de la paca del Coco</t>
-  </si>
-  <si>
-    <t>Golfito, Puntarenas</t>
-  </si>
-  <si>
     <t>8.6743</t>
   </si>
   <si>
@@ -130,15 +82,6 @@
     <t>5.9</t>
   </si>
   <si>
-    <t>3 km al SE de Paso Real, Buenos Aires, Puntarenas</t>
-  </si>
-  <si>
-    <t>Tectónico por Subducción de la Placa del Cocco bajo la Placa de Panamá</t>
-  </si>
-  <si>
-    <t>Zona sur, Valle Central, Limón</t>
-  </si>
-  <si>
     <t>-83.2176</t>
   </si>
   <si>
@@ -148,12 +91,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>9.85 km al SO de las Juntas de Abangares</t>
-  </si>
-  <si>
-    <t>Las Juntas de Abangares, Nicoya, Santa Cruz, Nandayure, Cañas, Paquera, Miramar, Herradura Miramar, San Ramón, Palmares, Naranjo, Atenas, San Mateo, Turrucares.</t>
-  </si>
-  <si>
     <t>10.2062</t>
   </si>
   <si>
@@ -163,12 +100,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Fallamiento Local</t>
-  </si>
-  <si>
-    <t>El Carmen y Tres Ríos, Cartago</t>
-  </si>
-  <si>
     <t>9.8232</t>
   </si>
   <si>
@@ -178,34 +109,109 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>Subducción</t>
-  </si>
-  <si>
-    <t>Fuerte en Punta Banco de Golfito, Puntarenas</t>
-  </si>
-  <si>
-    <t>Orosí, Cartago 3.9 Km SE</t>
-  </si>
-  <si>
-    <t>Punta Banco, Golfito, Puntarenas, 2.6 Km de Bijagua de Upala</t>
-  </si>
-  <si>
     <t>8.3242</t>
   </si>
   <si>
     <t>-83.1066</t>
   </si>
   <si>
-    <t>06:58:58</t>
-  </si>
-  <si>
-    <t>06:58:59</t>
-  </si>
-  <si>
-    <t>06:58:60</t>
-  </si>
-  <si>
-    <t>06:58:61</t>
+    <t>Mon Aug 20 22:58:39 CST 2018</t>
+  </si>
+  <si>
+    <t>Sat Aug 19 21:57:38 CST 2017</t>
+  </si>
+  <si>
+    <t>Sun Sep 09 11:47:28 CST 2007</t>
+  </si>
+  <si>
+    <t>Fri Jan 19 22:57:38 CST 2018</t>
+  </si>
+  <si>
+    <t>Tue Aug 14 16:52:33 CST 2012</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:43:24 CST 2003</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 07:43:24 CST 2018</t>
+  </si>
+  <si>
+    <t>Detalle Falla</t>
+  </si>
+  <si>
+    <t>de Nazca ´pr debajo de la micro placa de Panamá</t>
+  </si>
+  <si>
+    <t>de la paca del Coco</t>
+  </si>
+  <si>
+    <t>de la Placa del Cocco bajo la Placa de Panamá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la paca del Coco</t>
+  </si>
+  <si>
+    <t>Subduccion_Placas</t>
+  </si>
+  <si>
+    <t>Deformación_Interna</t>
+  </si>
+  <si>
+    <t>Tectónico_Subducción</t>
+  </si>
+  <si>
+    <t>Fallamiento_Local</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Puntarenas</t>
+  </si>
+  <si>
+    <t>50 km al Suroeste de Jacó, Playa Hermosa de Garabito</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Terrestre</t>
+  </si>
+  <si>
+    <t>6.13 km hacia el Noreste de Puerto Armuelles, Panamá, Corredores de Puntarenas, Puerto Armuelles, Golfito, Puerto Jimenez, El Valle Central: Alajuela, Heredia, Escazú</t>
+  </si>
+  <si>
+    <t>3.68 km hacia el Noreste de Dos Rios de Osa de Puntarenas, Golfito, Puntarenas</t>
+  </si>
+  <si>
+    <t>3 km al SE de Paso Real, Buenos Aires, Puntarenas, Zona sur, Valle Central, Limón</t>
+  </si>
+  <si>
+    <t>San_Jose</t>
+  </si>
+  <si>
+    <t>9.85 km al SO de las Juntas de Abangares, Las Juntas de Abangares, Nicoya, Santa Cruz, Nandayure, Cañas, Paquera, Miramar, Herradura Miramar, San Ramón, Palmares, Naranjo, Atenas, San Mateo, Turrucares.</t>
+  </si>
+  <si>
+    <t>Guanacaste</t>
+  </si>
+  <si>
+    <t>Orosí, Cartago 3.9 Km SE, El Carmen y Tres Ríos, Cartago</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>Punta Banco, Golfito, Puntarenas, 2.6 Km de Bijagua de Upala, Fuerte en Punta Banco de Golfito, Puntarenas</t>
+  </si>
+  <si>
+    <t>Marítimo</t>
+  </si>
+  <si>
+    <t>No_Aplica</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -580,15 +586,17 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -596,16 +604,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -614,237 +622,237 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43903</v>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43902</v>
+      <c r="A3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43899</v>
+      <c r="A4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43894</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="5">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="5">
-        <v>11</v>
+      <c r="D7" t="s">
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8845207E-AA48-4F0B-9401-0B470F674E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01C8CD-92FB-4A0A-84B5-8D015534A156}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,27 +115,6 @@
     <t>-83.1066</t>
   </si>
   <si>
-    <t>Mon Aug 20 22:58:39 CST 2018</t>
-  </si>
-  <si>
-    <t>Sat Aug 19 21:57:38 CST 2017</t>
-  </si>
-  <si>
-    <t>Sun Sep 09 11:47:28 CST 2007</t>
-  </si>
-  <si>
-    <t>Fri Jan 19 22:57:38 CST 2018</t>
-  </si>
-  <si>
-    <t>Tue Aug 14 16:52:33 CST 2012</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 07:43:24 CST 2003</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 07:43:24 CST 2018</t>
-  </si>
-  <si>
     <t>Detalle Falla</t>
   </si>
   <si>
@@ -169,42 +148,21 @@
     <t>Puntarenas</t>
   </si>
   <si>
-    <t>50 km al Suroeste de Jacó, Playa Hermosa de Garabito</t>
-  </si>
-  <si>
     <t>Lugar</t>
   </si>
   <si>
     <t>Terrestre</t>
   </si>
   <si>
-    <t>6.13 km hacia el Noreste de Puerto Armuelles, Panamá, Corredores de Puntarenas, Puerto Armuelles, Golfito, Puerto Jimenez, El Valle Central: Alajuela, Heredia, Escazú</t>
-  </si>
-  <si>
-    <t>3.68 km hacia el Noreste de Dos Rios de Osa de Puntarenas, Golfito, Puntarenas</t>
-  </si>
-  <si>
-    <t>3 km al SE de Paso Real, Buenos Aires, Puntarenas, Zona sur, Valle Central, Limón</t>
-  </si>
-  <si>
     <t>San_Jose</t>
   </si>
   <si>
-    <t>9.85 km al SO de las Juntas de Abangares, Las Juntas de Abangares, Nicoya, Santa Cruz, Nandayure, Cañas, Paquera, Miramar, Herradura Miramar, San Ramón, Palmares, Naranjo, Atenas, San Mateo, Turrucares.</t>
-  </si>
-  <si>
     <t>Guanacaste</t>
   </si>
   <si>
-    <t>Orosí, Cartago 3.9 Km SE, El Carmen y Tres Ríos, Cartago</t>
-  </si>
-  <si>
     <t>Cartago</t>
   </si>
   <si>
-    <t>Punta Banco, Golfito, Puntarenas, 2.6 Km de Bijagua de Upala, Fuerte en Punta Banco de Golfito, Puntarenas</t>
-  </si>
-  <si>
     <t>Marítimo</t>
   </si>
   <si>
@@ -212,6 +170,48 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>6.13 km hacia el Noreste de Puerto Armuelles</t>
+  </si>
+  <si>
+    <t>3.68 km hacia el Noreste de Dos Rios de Osa de Puntarenas</t>
+  </si>
+  <si>
+    <t>3 km al SE de Paso Real en Buenos Aires además Zona sur y  Valle Central</t>
+  </si>
+  <si>
+    <t>9.85 km al SO de las Juntas de Abangares en Nicoya y Santa Cruz.</t>
+  </si>
+  <si>
+    <t>Orosí 3.9 Km SE en El Carmen y Tres Ríos</t>
+  </si>
+  <si>
+    <t>Punta Banco en  Golfito 2.6 Km de Bijagua de Upala en Fuerte en Punta Banco de Golfito</t>
+  </si>
+  <si>
+    <t>50 km al Suroeste de Jacó en Playa Hermosa de Garabito</t>
+  </si>
+  <si>
+    <t>20-08-2020 22:58:39</t>
+  </si>
+  <si>
+    <t>19-08-2017 21:57:38</t>
+  </si>
+  <si>
+    <t>19-01-2018 22:57:38</t>
+  </si>
+  <si>
+    <t>09-09-2007 11:47:28</t>
+  </si>
+  <si>
+    <t>14-08-2012 16:52:33</t>
+  </si>
+  <si>
+    <t>05-04-2003 07:43:24</t>
+  </si>
+  <si>
+    <t>05-03-2018 07:43:24</t>
   </si>
 </sst>
 </file>
@@ -258,10 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -586,7 +585,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -625,24 +624,24 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -654,27 +653,27 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -686,27 +685,27 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -718,141 +717,141 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="5">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01C8CD-92FB-4A0A-84B5-8D015534A156}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C460B7B-BF77-4019-B46A-376C470E82DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2535" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -211,7 +211,79 @@
     <t>05-04-2003 07:43:24</t>
   </si>
   <si>
-    <t>05-03-2018 07:43:24</t>
+    <t>02-03-2020 21:24:20</t>
+  </si>
+  <si>
+    <t>04-03-2018 07:33:24</t>
+  </si>
+  <si>
+    <t>02-03-2020 18:19:54</t>
+  </si>
+  <si>
+    <t>29-02-2016 09:56:02</t>
+  </si>
+  <si>
+    <t>01-08-2016 19:16:40</t>
+  </si>
+  <si>
+    <t>Choque_Placas</t>
+  </si>
+  <si>
+    <t>Tectónico_Falla_Local</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>10.7227</t>
+  </si>
+  <si>
+    <t>9.6382</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>8.5678</t>
+  </si>
+  <si>
+    <t>-85.003</t>
+  </si>
+  <si>
+    <t>-82.0345</t>
+  </si>
+  <si>
+    <t>-84.345</t>
+  </si>
+  <si>
+    <t>-83.3456</t>
+  </si>
+  <si>
+    <t>Bijagua de Uplaa</t>
+  </si>
+  <si>
+    <t>Alajuela</t>
+  </si>
+  <si>
+    <t>Sentido leve Patarrá de Desamparados</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Cahuita</t>
+  </si>
+  <si>
+    <t>Limon</t>
   </si>
 </sst>
 </file>
@@ -582,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,8 +666,9 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -824,7 +897,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>29</v>
@@ -852,6 +925,134 @@
       </c>
       <c r="J8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C460B7B-BF77-4019-B46A-376C470E82DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFF51F-3FDF-40D0-B7F8-9723CE91A9D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2535" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -656,19 +656,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFF51F-3FDF-40D0-B7F8-9723CE91A9D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842FD95-FFD2-4B86-BC17-51101CA7E2BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842FD95-FFD2-4B86-BC17-51101CA7E2BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D3E41-AD19-4FB5-86BA-C16EBD519F97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tablaSismos.xlsx
+++ b/tablaSismos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\primerProyectoPOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D3E41-AD19-4FB5-86BA-C16EBD519F97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{18A7AF57-D1EF-40C0-90B8-7488F6EA6F05}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="7875" windowWidth="15375" xWindow="2340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2340"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,12 +284,22 @@
   </si>
   <si>
     <t>Limon</t>
+  </si>
+  <si>
+    <t>17-06-2020 10:20:55</t>
+  </si>
+  <si>
+    <t>sdsdfgf</t>
+  </si>
+  <si>
+    <t>asdasdfs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,24 +338,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -362,10 +372,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -400,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -563,21 +573,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -594,7 +604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -646,15 +656,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
@@ -662,13 +672,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,9 +1065,281 @@
         <v>87</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>89.345454</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-86.666666</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
+      <c r="FT13"/>
+      <c r="FU13"/>
+      <c r="FV13"/>
+      <c r="FW13"/>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
+      <c r="GB13"/>
+      <c r="GC13"/>
+      <c r="GD13"/>
+      <c r="GE13"/>
+      <c r="GF13"/>
+      <c r="GG13"/>
+      <c r="GH13"/>
+      <c r="GI13"/>
+      <c r="GJ13"/>
+      <c r="GK13"/>
+      <c r="GL13"/>
+      <c r="GM13"/>
+      <c r="GN13"/>
+      <c r="GO13"/>
+      <c r="GP13"/>
+      <c r="GQ13"/>
+      <c r="GR13"/>
+      <c r="GS13"/>
+      <c r="GT13"/>
+      <c r="GU13"/>
+      <c r="GV13"/>
+      <c r="GW13"/>
+      <c r="GX13"/>
+      <c r="GY13"/>
+      <c r="GZ13"/>
+      <c r="HA13"/>
+      <c r="HB13"/>
+      <c r="HC13"/>
+      <c r="HD13"/>
+      <c r="HE13"/>
+      <c r="HF13"/>
+      <c r="HG13"/>
+      <c r="HH13"/>
+      <c r="HI13"/>
+      <c r="HJ13"/>
+      <c r="HK13"/>
+      <c r="HL13"/>
+      <c r="HM13"/>
+      <c r="HN13"/>
+      <c r="HO13"/>
+      <c r="HP13"/>
+      <c r="HQ13"/>
+      <c r="HR13"/>
+      <c r="HS13"/>
+      <c r="HT13"/>
+      <c r="HU13"/>
+      <c r="HV13"/>
+      <c r="HW13"/>
+      <c r="HX13"/>
+      <c r="HY13"/>
+      <c r="HZ13"/>
+      <c r="IA13"/>
+      <c r="IB13"/>
+      <c r="IC13"/>
+      <c r="ID13"/>
+      <c r="IE13"/>
+      <c r="IF13"/>
+      <c r="IG13"/>
+      <c r="IH13"/>
+      <c r="II13"/>
+      <c r="IJ13"/>
+      <c r="IK13"/>
+      <c r="IL13"/>
+      <c r="IM13"/>
+      <c r="IN13"/>
+      <c r="IO13"/>
+      <c r="IP13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>